--- a/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,47 +16,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>卡牌ID</t>
   </si>
   <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>称号</t>
-  </si>
-  <si>
-    <t>力量</t>
-  </si>
-  <si>
-    <t>洞察</t>
-  </si>
-  <si>
-    <t>体质</t>
-  </si>
-  <si>
-    <t>意志</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>理性</t>
-  </si>
-  <si>
-    <t>幸运</t>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>激活效果</t>
+  </si>
+  <si>
+    <t>符号</t>
+  </si>
+  <si>
+    <t>符号ID</t>
+  </si>
+  <si>
+    <t>卡牌数量</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -69,43 +51,88 @@
     <t>name</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>determination</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>lucky</t>
+    <t>activeEffect</t>
+  </si>
+  <si>
+    <t>signTxt</t>
+  </si>
+  <si>
+    <t>signID</t>
   </si>
   <si>
     <t>KEY</t>
   </si>
   <si>
-    <t>达伦·琼斯</t>
-  </si>
-  <si>
-    <t>罪犯，佣兵</t>
-  </si>
-  <si>
-    <t>布伦达·威尔逊</t>
-  </si>
-  <si>
-    <t>深潜者，祭祀</t>
+    <t>严阵以待</t>
+  </si>
+  <si>
+    <t>盾+2，剑-1</t>
+  </si>
+  <si>
+    <t>盾</t>
+  </si>
+  <si>
+    <t>猛攻</t>
+  </si>
+  <si>
+    <t>剑+2，盾-1</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>窒息之暗</t>
+  </si>
+  <si>
+    <t>对手剑-1，盾-1，月+2.</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>暴晒</t>
+  </si>
+  <si>
+    <t>对手剑-1，盾-1，日+2.</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>心灵创伤</t>
+  </si>
+  <si>
+    <t>立刻造成X点恐惧，X为对手当前月的数量。</t>
+  </si>
+  <si>
+    <t>强袭</t>
+  </si>
+  <si>
+    <t>立刻造成X点伤害，X为对手当前日的数量。</t>
+  </si>
+  <si>
+    <t>佯攻</t>
+  </si>
+  <si>
+    <t>剑-2，对手盾-2</t>
+  </si>
+  <si>
+    <t>旧神庇护</t>
+  </si>
+  <si>
+    <t>将所有日和月，转为总数一半的旧印（向下取整）</t>
+  </si>
+  <si>
+    <t>旧印</t>
+  </si>
+  <si>
+    <t>海潮呼唤</t>
+  </si>
+  <si>
+    <t>将所有日和月，转为总数一半的触手（向下取整）</t>
+  </si>
+  <si>
+    <t>触手</t>
   </si>
 </sst>
 </file>
@@ -118,7 +145,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +155,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -135,24 +183,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,53 +197,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,9 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,8 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,36 +305,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,192 +326,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -586,11 +625,52 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,19 +708,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,22 +718,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,160 +741,160 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,19 +927,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1272,28 +1338,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.125" customWidth="1"/>
-    <col min="2" max="3" width="27" customWidth="1"/>
-    <col min="4" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="38.5" customWidth="1"/>
-    <col min="10" max="11" width="41.375" customWidth="1"/>
-    <col min="12" max="12" width="50.125" customWidth="1"/>
-    <col min="13" max="13" width="42.125" customWidth="1"/>
-    <col min="14" max="15" width="52.25" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27.65" customWidth="1"/>
+    <col min="4" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="50.125" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="9" width="52.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1309,141 +1373,83 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
+      <c r="B4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
+    <row r="5" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A5" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:15">
-      <c r="A4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:15">
-      <c r="A5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1453,118 +1459,221 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:15">
-      <c r="A6" s="13">
+    <row r="6" s="2" customFormat="1" spans="1:9">
+      <c r="A6" s="12">
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="14">
+        <v>3</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:9">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="17">
+        <v>3</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="12">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>4</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="E9" s="12">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:6">
+      <c r="A10" s="12">
+        <v>5</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="12">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" ht="27" spans="1:6">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
-      <c r="E6" s="13">
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="12">
+        <v>6</v>
+      </c>
+      <c r="F11" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
-        <v>6</v>
-      </c>
-      <c r="G6" s="13">
-        <v>4</v>
-      </c>
-      <c r="H6" s="13">
-        <v>24</v>
-      </c>
-      <c r="I6" s="13">
-        <v>18</v>
-      </c>
-      <c r="J6" s="13">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
     </row>
-    <row r="7" s="2" customFormat="1" spans="1:15">
-      <c r="A7" s="14">
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="12">
+        <v>7</v>
+      </c>
+      <c r="F12" s="18">
         <v>2</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="14">
-        <v>3</v>
-      </c>
-      <c r="E7" s="14">
-        <v>6</v>
-      </c>
-      <c r="F7" s="14">
-        <v>4</v>
-      </c>
-      <c r="G7" s="13">
-        <v>6</v>
-      </c>
-      <c r="H7" s="13">
-        <v>20</v>
-      </c>
-      <c r="I7" s="13">
-        <v>22</v>
-      </c>
-      <c r="J7" s="13">
-        <v>3</v>
-      </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
     </row>
-    <row r="9" spans="12:12">
-      <c r="L9" s="15"/>
+    <row r="13" ht="29" customHeight="1" spans="1:6">
+      <c r="A13" s="12">
+        <v>8</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="12">
+        <v>8</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" ht="38" customHeight="1" spans="1:6">
+      <c r="A14" s="12">
+        <v>9</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="12">
+        <v>9</v>
+      </c>
+      <c r="F14" s="18">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="$A4:$XFD4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O4">
+  <conditionalFormatting sqref="I4">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O3">
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="cellIs" priority="2" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P2:XFD3 A2:N3">
+  <conditionalFormatting sqref="A2:H3 J2:XFD3">
     <cfRule type="cellIs" priority="6" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P4:XFD4 A4:N4">
+  <conditionalFormatting sqref="A4:H4 J4:XFD4">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A2:$XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:H3 I3 J3 K3:XFD3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="$A5:$XFD5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5:XFD5">
       <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28710" windowHeight="12165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>signID</t>
+  </si>
+  <si>
+    <t>orginalNum</t>
   </si>
   <si>
     <t>KEY</t>
@@ -141,9 +144,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -167,23 +170,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -197,6 +223,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -205,16 +253,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,66 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,24 +313,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,187 +335,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,6 +642,50 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,26 +707,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,58 +743,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,7 +1340,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1442,14 +1439,16 @@
       <c r="E4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -1465,13 +1464,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -1488,13 +1487,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7" s="12">
         <v>2</v>
@@ -1511,13 +1510,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>3</v>
@@ -1531,13 +1530,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1551,13 +1550,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
@@ -1571,13 +1570,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="12">
         <v>6</v>
@@ -1591,13 +1590,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="12">
         <v>7</v>
@@ -1611,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="12">
         <v>8</v>
@@ -1631,13 +1630,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E14" s="12">
         <v>9</v>
@@ -1670,11 +1669,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5:XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5:XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>orginalNum</t>
-  </si>
-  <si>
-    <t>KEY</t>
   </si>
   <si>
     <t>严阵以待</t>
@@ -144,9 +141,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -171,14 +168,88 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,24 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,84 +279,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,6 +294,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -335,19 +332,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,157 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,31 +643,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,6 +673,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -704,55 +740,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +758,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1340,7 +1337,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1447,9 +1444,7 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="14.25" spans="1:9">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -1464,13 +1459,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -1487,13 +1482,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="D7" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>21</v>
       </c>
       <c r="E7" s="12">
         <v>2</v>
@@ -1510,13 +1505,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="D8" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>24</v>
       </c>
       <c r="E8" s="12">
         <v>3</v>
@@ -1530,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="D9" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1550,13 +1545,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="D10" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
@@ -1570,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="12">
         <v>6</v>
@@ -1590,13 +1585,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="D12" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12" s="12">
         <v>7</v>
@@ -1610,13 +1605,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E13" s="12">
         <v>8</v>
@@ -1630,13 +1625,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="12" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="E14" s="12">
         <v>9</v>
@@ -1666,11 +1661,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5:XFD5">
+      <formula1>"KEY"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2:XFD2">
       <formula1>"C,S,CS"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5:XFD5">
-      <formula1>"KEY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="12165"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>卡牌ID</t>
   </si>
@@ -36,6 +36,9 @@
     <t>卡牌数量</t>
   </si>
   <si>
+    <t>预制体</t>
+  </si>
+  <si>
     <t>CS</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>orginalNum</t>
   </si>
   <si>
+    <t>prefabPath</t>
+  </si>
+  <si>
     <t>严阵以待</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
   </si>
   <si>
     <t>盾</t>
+  </si>
+  <si>
+    <t>prefab/1</t>
   </si>
   <si>
     <t>猛攻</t>
@@ -141,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -168,88 +177,128 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,30 +312,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -294,22 +319,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -332,181 +341,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +648,62 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -658,21 +723,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -699,57 +749,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,7 +767,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,10 +776,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -779,112 +788,112 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1337,7 +1346,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1370,76 +1379,84 @@
       <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
       <c r="A2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>7</v>
+      </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:9">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="11"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
     </row>
@@ -1459,13 +1476,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E6" s="12">
         <v>1</v>
@@ -1473,7 +1490,9 @@
       <c r="F6" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
@@ -1482,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="12">
         <v>2</v>
@@ -1496,22 +1515,24 @@
       <c r="F7" s="17">
         <v>3</v>
       </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="12">
         <v>3</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E8" s="12">
         <v>3</v>
@@ -1519,19 +1540,22 @@
       <c r="F8" s="17">
         <v>2</v>
       </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="12">
         <v>4</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="12">
         <v>4</v>
@@ -1539,19 +1563,22 @@
       <c r="F9" s="17">
         <v>2</v>
       </c>
+      <c r="G9" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="10" ht="27" spans="1:6">
+    <row r="10" ht="27" spans="1:7">
       <c r="A10" s="12">
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
@@ -1559,19 +1586,22 @@
       <c r="F10" s="18">
         <v>2</v>
       </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="11" ht="27" spans="1:6">
+    <row r="11" ht="27" spans="1:7">
       <c r="A11" s="12">
         <v>6</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="12">
         <v>6</v>
@@ -1579,19 +1609,22 @@
       <c r="F11" s="19">
         <v>2</v>
       </c>
+      <c r="G11" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="12">
         <v>7</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="12">
         <v>7</v>
@@ -1599,19 +1632,22 @@
       <c r="F12" s="18">
         <v>2</v>
       </c>
+      <c r="G12" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="13" ht="29" customHeight="1" spans="1:6">
+    <row r="13" ht="29" customHeight="1" spans="1:7">
       <c r="A13" s="12">
         <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="12">
         <v>8</v>
@@ -1619,19 +1655,22 @@
       <c r="F13" s="18">
         <v>2</v>
       </c>
+      <c r="G13" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="14" ht="38" customHeight="1" spans="1:6">
+    <row r="14" ht="38" customHeight="1" spans="1:7">
       <c r="A14" s="12">
         <v>9</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E14" s="12">
         <v>9</v>
@@ -1639,36 +1678,53 @@
       <c r="F14" s="18">
         <v>2</v>
       </c>
+      <c r="G14" s="12" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="$A4:$XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I3">
-    <cfRule type="cellIs" priority="2" operator="equal">
+  <conditionalFormatting sqref="G2">
+    <cfRule type="cellIs" priority="1" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:H3 J2:XFD3">
+  <conditionalFormatting sqref="G3">
+    <cfRule type="cellIs" priority="3" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I3">
     <cfRule type="cellIs" priority="6" operator="equal">
       <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:H4 J4:XFD4">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  <conditionalFormatting sqref="A2:F3 H2:H3 J2:XFD3">
+    <cfRule type="cellIs" priority="10" operator="equal">
+      <formula>""""""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:F4 H4 J4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:F4 H4:XFD4">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5:XFD5">
-      <formula1>"KEY"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3 G3 H3:XFD3">
+      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2:XFD2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2 G2 H2:XFD2">
       <formula1>"C,S,CS"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3:XFD3">
-      <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5 G5 H5:XFD5">
+      <formula1>"KEY"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
@@ -78,7 +78,7 @@
     <t>盾</t>
   </si>
   <si>
-    <t>prefab/1</t>
+    <t>prefab/CounterCard</t>
   </si>
   <si>
     <t>猛攻</t>
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,14 +183,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -199,90 +253,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,27 +276,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -347,97 +347,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,42 +497,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -504,18 +516,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +648,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,6 +692,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -684,81 +743,22 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -770,130 +770,130 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,7 +1346,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1717,11 +1717,11 @@
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2 G2 H2:XFD2">
+      <formula1>"C,S,CS"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:E3 F3 G3 H3:XFD3">
       <formula1>"int,float,bool,string,list[int],list[float],list[string],map[int|int],map[int|float],map[int|string],map[string|int],map[string|float],map[string|string]"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:E2 F2 G2 H2:XFD2">
-      <formula1>"C,S,CS"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:E5 F5 G5 H5:XFD5">
       <formula1>"KEY"</formula1>

--- a/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
+++ b/Excel2Unity/Excel/InnstoryData/CounterCards.xlsx
@@ -149,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -173,21 +173,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -200,53 +185,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,9 +222,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,20 +281,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -307,14 +314,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,181 +341,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -648,6 +648,69 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,38 +733,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,49 +749,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -767,16 +767,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,115 +785,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1346,7 +1346,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8:G14"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
